--- a/optimize/Axiory/covid/MA15/NIKKEI/M5/matrix_NIKKEI_M5_MA15_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA15/NIKKEI/M5/matrix_NIKKEI_M5_MA15_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4108</v>
+        <v>4118</v>
       </c>
       <c r="C2">
-        <v>3276</v>
+        <v>3286</v>
       </c>
       <c r="D2">
-        <v>7998</v>
+        <v>8008</v>
       </c>
       <c r="E2">
-        <v>2946</v>
+        <v>2956</v>
       </c>
       <c r="F2">
-        <v>-1836</v>
+        <v>-1826</v>
       </c>
       <c r="G2">
-        <v>-5674</v>
+        <v>-5664</v>
       </c>
       <c r="H2">
-        <v>-1124</v>
+        <v>-1114</v>
       </c>
       <c r="I2">
-        <v>-1348</v>
+        <v>-1338</v>
       </c>
       <c r="J2">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-2534</v>
+        <v>-2524</v>
       </c>
       <c r="C3">
-        <v>-3466</v>
+        <v>-3456</v>
       </c>
       <c r="D3">
-        <v>8250</v>
+        <v>8260</v>
       </c>
       <c r="E3">
-        <v>-5818</v>
+        <v>-5808</v>
       </c>
       <c r="F3">
-        <v>-8830</v>
+        <v>-8820</v>
       </c>
       <c r="G3">
-        <v>-4962</v>
+        <v>-4952</v>
       </c>
       <c r="H3">
-        <v>-3598</v>
+        <v>-3588</v>
       </c>
       <c r="I3">
-        <v>-2868</v>
+        <v>-2858</v>
       </c>
       <c r="J3">
-        <v>-1400</v>
+        <v>-1390</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1522</v>
+        <v>1532</v>
       </c>
       <c r="C4">
-        <v>-3652</v>
+        <v>-3642</v>
       </c>
       <c r="D4">
-        <v>9310</v>
+        <v>9320</v>
       </c>
       <c r="E4">
-        <v>-916</v>
+        <v>-906</v>
       </c>
       <c r="F4">
-        <v>-4704</v>
+        <v>-4694</v>
       </c>
       <c r="G4">
-        <v>-5952</v>
+        <v>-5942</v>
       </c>
       <c r="H4">
-        <v>-3720</v>
+        <v>-3710</v>
       </c>
       <c r="I4">
-        <v>-3508</v>
+        <v>-3498</v>
       </c>
       <c r="J4">
-        <v>-1882</v>
+        <v>-1872</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-1794</v>
+        <v>-1784</v>
       </c>
       <c r="C5">
-        <v>-850</v>
+        <v>-840</v>
       </c>
       <c r="D5">
-        <v>6378</v>
+        <v>6388</v>
       </c>
       <c r="E5">
-        <v>-274</v>
+        <v>-264</v>
       </c>
       <c r="F5">
-        <v>-2568</v>
+        <v>-2558</v>
       </c>
       <c r="G5">
-        <v>-4674</v>
+        <v>-4664</v>
       </c>
       <c r="H5">
-        <v>-3328</v>
+        <v>-3318</v>
       </c>
       <c r="I5">
-        <v>-7732</v>
+        <v>-7722</v>
       </c>
       <c r="J5">
-        <v>-3144</v>
+        <v>-3134</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>4028</v>
+        <v>4038</v>
       </c>
       <c r="C6">
-        <v>-5172</v>
+        <v>-5162</v>
       </c>
       <c r="D6">
-        <v>7068</v>
+        <v>7078</v>
       </c>
       <c r="E6">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="F6">
-        <v>-4898</v>
+        <v>-4888</v>
       </c>
       <c r="G6">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="H6">
-        <v>-9384</v>
+        <v>-9374</v>
       </c>
       <c r="I6">
-        <v>-1778</v>
+        <v>-1768</v>
       </c>
       <c r="J6">
-        <v>-5988</v>
+        <v>-5978</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>4712</v>
+        <v>4722</v>
       </c>
       <c r="C7">
-        <v>-5134</v>
+        <v>-5124</v>
       </c>
       <c r="D7">
-        <v>3956</v>
+        <v>3966</v>
       </c>
       <c r="E7">
-        <v>7660</v>
+        <v>7670</v>
       </c>
       <c r="F7">
-        <v>-7982</v>
+        <v>-7972</v>
       </c>
       <c r="G7">
-        <v>2360</v>
+        <v>2370</v>
       </c>
       <c r="H7">
-        <v>-2070</v>
+        <v>-2060</v>
       </c>
       <c r="I7">
-        <v>-2240</v>
+        <v>-2230</v>
       </c>
       <c r="J7">
-        <v>-4738</v>
+        <v>-4728</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>6884</v>
+        <v>6894</v>
       </c>
       <c r="C8">
-        <v>-5904</v>
+        <v>-5894</v>
       </c>
       <c r="D8">
-        <v>4918</v>
+        <v>4928</v>
       </c>
       <c r="E8">
-        <v>9014</v>
+        <v>9024</v>
       </c>
       <c r="F8">
-        <v>-8480</v>
+        <v>-8470</v>
       </c>
       <c r="G8">
-        <v>1232</v>
+        <v>1242</v>
       </c>
       <c r="H8">
-        <v>1610</v>
+        <v>1620</v>
       </c>
       <c r="I8">
-        <v>-2224</v>
+        <v>-2214</v>
       </c>
       <c r="J8">
-        <v>-6364</v>
+        <v>-6354</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>3284</v>
+        <v>3294</v>
       </c>
       <c r="C9">
-        <v>-4462</v>
+        <v>-4452</v>
       </c>
       <c r="D9">
-        <v>2774</v>
+        <v>2784</v>
       </c>
       <c r="E9">
-        <v>7642</v>
+        <v>7652</v>
       </c>
       <c r="F9">
-        <v>-4258</v>
+        <v>-4248</v>
       </c>
       <c r="G9">
-        <v>3976</v>
+        <v>3986</v>
       </c>
       <c r="H9">
-        <v>-1434</v>
+        <v>-1424</v>
       </c>
       <c r="I9">
-        <v>-2476</v>
+        <v>-2466</v>
       </c>
       <c r="J9">
-        <v>-5472</v>
+        <v>-5462</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>7610</v>
+        <v>7620</v>
       </c>
       <c r="C10">
-        <v>-4900</v>
+        <v>-4890</v>
       </c>
       <c r="D10">
-        <v>2538</v>
+        <v>2548</v>
       </c>
       <c r="E10">
-        <v>7618</v>
+        <v>7628</v>
       </c>
       <c r="F10">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="G10">
-        <v>-612</v>
+        <v>-602</v>
       </c>
       <c r="H10">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="I10">
-        <v>-2824</v>
+        <v>-2814</v>
       </c>
       <c r="J10">
-        <v>-4318</v>
+        <v>-4308</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>7054</v>
+        <v>7064</v>
       </c>
       <c r="C11">
-        <v>-332</v>
+        <v>-322</v>
       </c>
       <c r="D11">
-        <v>3394</v>
+        <v>3404</v>
       </c>
       <c r="E11">
-        <v>8364</v>
+        <v>8374</v>
       </c>
       <c r="F11">
-        <v>3858</v>
+        <v>3868</v>
       </c>
       <c r="G11">
-        <v>-1384</v>
+        <v>-1374</v>
       </c>
       <c r="H11">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="I11">
-        <v>-3184</v>
+        <v>-3174</v>
       </c>
       <c r="J11">
-        <v>-5476</v>
+        <v>-5466</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>7132</v>
+        <v>7142</v>
       </c>
       <c r="C12">
-        <v>-3328</v>
+        <v>-3318</v>
       </c>
       <c r="D12">
-        <v>3770</v>
+        <v>3780</v>
       </c>
       <c r="E12">
-        <v>5746</v>
+        <v>5756</v>
       </c>
       <c r="F12">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="G12">
-        <v>-1276</v>
+        <v>-1266</v>
       </c>
       <c r="H12">
-        <v>3386</v>
+        <v>3396</v>
       </c>
       <c r="I12">
-        <v>-3636</v>
+        <v>-3626</v>
       </c>
       <c r="J12">
-        <v>-6698</v>
+        <v>-6688</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>8430</v>
+        <v>8440</v>
       </c>
       <c r="C13">
-        <v>-796</v>
+        <v>-786</v>
       </c>
       <c r="D13">
-        <v>1436</v>
+        <v>1446</v>
       </c>
       <c r="E13">
-        <v>2222</v>
+        <v>2232</v>
       </c>
       <c r="F13">
-        <v>1306</v>
+        <v>1316</v>
       </c>
       <c r="G13">
-        <v>1438</v>
+        <v>1448</v>
       </c>
       <c r="H13">
-        <v>2330</v>
+        <v>2340</v>
       </c>
       <c r="I13">
-        <v>-4286</v>
+        <v>-4276</v>
       </c>
       <c r="J13">
-        <v>-3084</v>
+        <v>-3074</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>8638</v>
+        <v>8648</v>
       </c>
       <c r="C14">
-        <v>-2972</v>
+        <v>-2962</v>
       </c>
       <c r="D14">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E14">
-        <v>2086</v>
+        <v>2096</v>
       </c>
       <c r="F14">
-        <v>1242</v>
+        <v>1252</v>
       </c>
       <c r="G14">
-        <v>4640</v>
+        <v>4650</v>
       </c>
       <c r="H14">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="I14">
-        <v>-2582</v>
+        <v>-2572</v>
       </c>
       <c r="J14">
-        <v>-1958</v>
+        <v>-1948</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>9534</v>
+        <v>9544</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E15">
-        <v>2094</v>
+        <v>2104</v>
       </c>
       <c r="F15">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="G15">
-        <v>6668</v>
+        <v>6678</v>
       </c>
       <c r="H15">
-        <v>1386</v>
+        <v>1396</v>
       </c>
       <c r="I15">
-        <v>-1130</v>
+        <v>-1120</v>
       </c>
       <c r="J15">
-        <v>-1732</v>
+        <v>-1722</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>8700</v>
+        <v>8710</v>
       </c>
       <c r="C16">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D16">
-        <v>-1644</v>
+        <v>-1634</v>
       </c>
       <c r="E16">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="F16">
-        <v>1934</v>
+        <v>1944</v>
       </c>
       <c r="G16">
-        <v>4506</v>
+        <v>4516</v>
       </c>
       <c r="H16">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="I16">
-        <v>-2130</v>
+        <v>-2120</v>
       </c>
       <c r="J16">
-        <v>-1130</v>
+        <v>-1120</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>8842</v>
+        <v>8852</v>
       </c>
       <c r="C17">
-        <v>-2558</v>
+        <v>-2548</v>
       </c>
       <c r="D17">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="E17">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F17">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="G17">
-        <v>4004</v>
+        <v>4014</v>
       </c>
       <c r="H17">
-        <v>1652</v>
+        <v>1662</v>
       </c>
       <c r="I17">
-        <v>-632</v>
+        <v>-622</v>
       </c>
       <c r="J17">
-        <v>1708</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>10132</v>
+        <v>10142</v>
       </c>
       <c r="C18">
-        <v>-4114</v>
+        <v>-4104</v>
       </c>
       <c r="D18">
-        <v>-928</v>
+        <v>-918</v>
       </c>
       <c r="E18">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="F18">
-        <v>-1316</v>
+        <v>-1306</v>
       </c>
       <c r="G18">
-        <v>5878</v>
+        <v>5888</v>
       </c>
       <c r="H18">
-        <v>2122</v>
+        <v>2132</v>
       </c>
       <c r="I18">
-        <v>-1358</v>
+        <v>-1348</v>
       </c>
       <c r="J18">
-        <v>-1254</v>
+        <v>-1244</v>
       </c>
     </row>
   </sheetData>
